--- a/Leetcode/DSA/Excel Notes.xlsx
+++ b/Leetcode/DSA/Excel Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1090">
   <si>
     <t>No.</t>
   </si>
@@ -3846,6 +3846,95 @@
   </si>
   <si>
     <t>If count is not equals total nodes, return an empty array, else return result[] array.</t>
+  </si>
+  <si>
+    <t>Can Place Flower</t>
+  </si>
+  <si>
+    <t>For every position, check value of its right and left, if both are 0, we can plant a flower there. For 0th position and n-1th position, check only for right value and and left value respectively.</t>
+  </si>
+  <si>
+    <t>To perform above operation take boolean left for all postions including 0th and for boolean right for all position including n-1th.</t>
+  </si>
+  <si>
+    <t>String compression</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Things to keep in mind : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To use inplace storage, we need to store the compressed string in the given input char array.</t>
+    </r>
+  </si>
+  <si>
+    <t>Traverse over each consecutive group in the array and count their individual groupLength, once group is finished, add that character to start of the group. If groupLength is greater than 1, add this groupLength to</t>
+  </si>
+  <si>
+    <t>the related character. To complete this, we need 3 variables i=0,res=0,groupLength=1. var i is used to keep track of the first character of the consecutive same group, var res is used to place the character and its</t>
+  </si>
+  <si>
+    <t>groupLength at approprite position, for every i variable, groupLength=1, it is incremented by increase in number of consecutive characters. Return res, which reflects the length of the compressed string.</t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequences</t>
+  </si>
+  <si>
+    <t>The approah used is keeping track of two minimum values a and b, while iterating through the array.</t>
+  </si>
+  <si>
+    <t>Initialise variable a and b to Integer.MAX_VALUE, while iterating input array, if the element is less than or equal to a, update a with that element, if the element is greater than a but less than b, then update b with</t>
+  </si>
+  <si>
+    <t>element value. If element is greater than both a and b, it means increasing triplet is found, return true.</t>
+  </si>
+  <si>
+    <t>Product of array except self</t>
+  </si>
+  <si>
+    <t>Finding Prefix Product and Suffix Product</t>
+  </si>
+  <si>
+    <t>Find the prefix product of each element excluding in the prefix array, same do with suffix array. Start prefix from left and suffix from right.</t>
+  </si>
+  <si>
+    <t>Mark prefix[0]=1 and suffix[n-1]=1. For prefix, start traversal from i=1 and for sufix start traversal from i=n-2.</t>
+  </si>
+  <si>
+    <t>In res[] array, add the product of suffix and prefix at that particular index. Return res array.</t>
+  </si>
+  <si>
+    <t>Mediumm</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start by trimming the input string s, to eliminate leading and trailing spaces, iterate the string from right to left. Create a stringbuilder to store the reversed string. </t>
+  </si>
+  <si>
+    <t>Inside the for loop, declare a variable sub, to point the last index of the word. Iterate till you find next space ' '. Thus i variable from for loop will indicate starting pf the each word and sub variable will indicate</t>
+  </si>
+  <si>
+    <t>ending of each word. Extract the current word using substring(i+1,sub+1) method. If extracted word is not empty string, append it to stringbuilder then again update empty space(" ") to stringbuilder.</t>
+  </si>
+  <si>
+    <t>Return sb.toString().trim().</t>
   </si>
 </sst>
 </file>
@@ -4365,8 +4454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8627,10 +8716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8697,7 +8786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.8" customHeight="1">
       <c r="B6">
         <v>3</v>
       </c>
@@ -9061,6 +9150,72 @@
       </c>
       <c r="D29" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="G32" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="G35" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="G36" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="G37" t="s">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -9071,10 +9226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9175,8 +9330,118 @@
         <v>732</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="G19" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="G20" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="G21" t="s">
+        <v>1089</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9600,7 +9865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
@@ -10759,7 +11024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
+    <sheetView topLeftCell="A233" workbookViewId="0">
       <selection activeCell="H247" sqref="H247"/>
     </sheetView>
   </sheetViews>
@@ -12525,7 +12790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/Leetcode/DSA/Excel Notes.xlsx
+++ b/Leetcode/DSA/Excel Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1101">
   <si>
     <t>No.</t>
   </si>
@@ -3935,6 +3935,39 @@
   </si>
   <si>
     <t>Return sb.toString().trim().</t>
+  </si>
+  <si>
+    <t>keep a sum variable and iterate over the array, incrementing the sum with each element ans assigning sum at each indices in the array</t>
+  </si>
+  <si>
+    <t>iterate over the array and if any element is not 0 move it to first empty position of the array, use i=0 and j=0, again iterate and fill the remaining empty fields of array with 0</t>
+  </si>
+  <si>
+    <t>Max Number of K-Sum Pairs</t>
+  </si>
+  <si>
+    <t>Two pointers</t>
+  </si>
+  <si>
+    <t>create a count=0 variable and a Hashmap map, iterate the input array, if(map.getOrDefault(k-nums[i],0) &gt; 0), then increment the count, and decrement the frequency else, increment the freq of nums[i].</t>
+  </si>
+  <si>
+    <t>Sort the input array, put 1st pointer i=0 and 2nd pointer j= nums.length-1. Now using while loop until i&lt;j, keep checking for the value of the sum. Return count</t>
+  </si>
+  <si>
+    <t>Return count</t>
+  </si>
+  <si>
+    <t>Container with most water</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Create a maxArea=min_value, variable, put 1st pointer i=0 and 2nd pointer j= nums.length-1. while(i&lt;j), keep checking the area of nums[i] and nums[j] and update the maxArea with calculated area.</t>
+  </si>
+  <si>
+    <t>If(height[i]&lt;=height[j]){i++;}else{j--;} Return maxArea</t>
   </si>
 </sst>
 </file>
@@ -8716,10 +8749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8854,7 +8887,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8874,7 +8907,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9216,6 +9249,85 @@
     <row r="37" spans="1:7">
       <c r="G37" t="s">
         <v>1083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="G40" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="G42" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="G43" s="8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="G46" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47" t="s">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -9228,7 +9340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/Leetcode/DSA/Excel Notes.xlsx
+++ b/Leetcode/DSA/Excel Notes.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="1121">
   <si>
     <t>No.</t>
   </si>
@@ -3919,9 +3919,6 @@
     <t>In res[] array, add the product of suffix and prefix at that particular index. Return res array.</t>
   </si>
   <si>
-    <t>Mediumm</t>
-  </si>
-  <si>
     <t>Reverse Words in a String</t>
   </si>
   <si>
@@ -3968,13 +3965,76 @@
   </si>
   <si>
     <t>If(height[i]&lt;=height[j]){i++;}else{j--;} Return maxArea</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray 1</t>
+  </si>
+  <si>
+    <t>We keep a window of k, for first k elements we calculate sum, now we start a loop for elements just after first k till n-1. Here we add current element to the sum variable and substract (i-kth) element.</t>
+  </si>
+  <si>
+    <t>Keep a maxAvg  and avg to calculate maxAvg for each i, return (double)maxAvg/k.</t>
+  </si>
+  <si>
+    <t>Maximum number of vowels in a substring of given length</t>
+  </si>
+  <si>
+    <t>Use a Hashset to store all 5 vowels. Calculate vowels for first k elements. Now iterate for remaining for i=k to i=n-1, check in set for each index i if character is a vowel, if it is, then increment the vowel variable by 1.</t>
+  </si>
+  <si>
+    <t>Also check in set at each index (i-k) if character it is, if it is, decrement the vowel variable by 1. Use a maxVowel variable to calculate maxVowels at each index. Return maxVowel.</t>
+  </si>
+  <si>
+    <t>Max Consecutives Ones 3</t>
+  </si>
+  <si>
+    <t>Here, we need to have a flexible window size. We will only flip a zero if it extends an existing window of 1s. We can never have &gt; K zeros. The way to shrink or expand a window would be based on the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> number of zeros that can still be flipped and so on.</t>
+  </si>
+  <si>
+    <t>Create variable i=0,j=0, numZeroes=0,maxZeroes=0. Iterate using while loop until j&lt;nums.length. In iteration if an element is 0, increment numZeroes by 1. While(numZeroes&gt;k) if first element of window</t>
+  </si>
+  <si>
+    <t>nums[i]==0, decrement numZeroes. Change window size as i++. Calculate maxAvg using maxOnes = Math.max(maxOnes,j-i+1) just outside of 2nd while loop. Increment window side, j++,Return maxOnes.</t>
+  </si>
+  <si>
+    <t>Longest Subarray if 1's After Deleting One Elem</t>
+  </si>
+  <si>
+    <t>Maintain a sliding window where there is at most one zero on it.</t>
+  </si>
+  <si>
+    <t>Use above problem solution, k will be replaced by 1, j-i+1 will be replaced by j-i.</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>You are given an integer array gain of length n where gain[i] is the net gain in altitude between points i​​​​​​ and i + 1 for all (0 &lt;= i &lt; n).</t>
+  </si>
+  <si>
+    <t>Since, starting at 0th point which has altitude 0. Create currAltitude=0 and highestAltitude=currAltitude. Now, since is element gain[i] in the array is the net gain in altitude between points I and i+1.</t>
+  </si>
+  <si>
+    <t>Thus we can calculate the height of one point by adding the altitude of previous point and net gain. Thus, using running sum and maxAlt we can calculate maximu Altitude.</t>
+  </si>
+  <si>
+    <t>We need a sum=0 and leftSum=0 variable, store sum of array in sum variable using for loop. Now use another for loop from i=0 to i=n-1. For each iteration check if (sum-leftSum-nums[i] == leftSum)</t>
+  </si>
+  <si>
+    <t>if it is, return i. increment leftSum += nums[i]. Outside of loop, return -1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4146,6 +4206,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4168,7 +4235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4204,6 +4271,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4487,7 +4555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
@@ -8749,10 +8817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8887,7 +8955,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8907,7 +8975,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9262,7 +9330,7 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E39" t="s">
         <v>207</v>
@@ -9271,12 +9339,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="G40" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -9292,15 +9360,18 @@
     </row>
     <row r="42" spans="1:7">
       <c r="G42" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="G43" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
       <c r="B45">
         <v>21</v>
       </c>
@@ -9308,7 +9379,7 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -9317,17 +9388,197 @@
         <v>10</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="G46" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="G47" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
         <v>1100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="G50" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="G51" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="G54" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="G55" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="G56" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="G57" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="G60" s="29" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="G61" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="G64" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="G65" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="G66" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B68">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="G69" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="G70" t="s">
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
@@ -9338,16 +9589,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="172.5546875" customWidth="1"/>
   </cols>
@@ -9521,10 +9772,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
         <v>1084</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1085</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -9533,22 +9784,55 @@
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="G19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="G20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="G21" t="s">
-        <v>1089</v>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="G24" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="G25" t="s">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode/DSA/Excel Notes.xlsx
+++ b/Leetcode/DSA/Excel Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="1129">
   <si>
     <t>No.</t>
   </si>
@@ -4028,6 +4028,30 @@
   </si>
   <si>
     <t>if it is, return i. increment leftSum += nums[i]. Outside of loop, return -1.</t>
+  </si>
+  <si>
+    <t>HashMap/Set</t>
+  </si>
+  <si>
+    <t>Determine if two strings are close</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>3 conditions that are needed to be satisfied</t>
+  </si>
+  <si>
+    <t>1. The lengths of the two input strings, word1 and word2, must be equal. If the lengths are different, the function returns false.</t>
+  </si>
+  <si>
+    <t>2. The sets of characters in both strings must be the same. This means that for every character present in one string, there must be an equivalent character in the other string, and vice versa.</t>
+  </si>
+  <si>
+    <t>3. The count of each character of A must matches with count of any character in string B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now considering above 3 points we can formulate our code. </t>
   </si>
 </sst>
 </file>
@@ -8819,8 +8843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9589,10 +9613,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9833,6 +9857,54 @@
     <row r="25" spans="1:7">
       <c r="G25" t="s">
         <v>1105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="G28" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="G29" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="G30" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="G31" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="G32" t="s">
+        <v>1128</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode/DSA/Excel Notes.xlsx
+++ b/Leetcode/DSA/Excel Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1132">
   <si>
     <t>No.</t>
   </si>
@@ -4052,6 +4052,15 @@
   </si>
   <si>
     <t xml:space="preserve">Now considering above 3 points we can formulate our code. </t>
+  </si>
+  <si>
+    <t>Equal Row and Column Pairs</t>
+  </si>
+  <si>
+    <t>Here, we need to compare each row with each column. Thus we can iterate over 2d array normally and append each row as string in hashmap. Now, similarily, we can convert each column in string</t>
+  </si>
+  <si>
+    <t>and check whether that string column hashmap already contains. If it does, we increment a count variable by value of that string key and return count</t>
   </si>
 </sst>
 </file>
@@ -8841,10 +8850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="E47" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9605,6 +9614,39 @@
         <v>1120</v>
       </c>
     </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B72">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="G73" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="G74" t="s">
+        <v>1131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9615,7 +9657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+    <sheetView topLeftCell="E7" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>

--- a/Leetcode/DSA/Excel Notes.xlsx
+++ b/Leetcode/DSA/Excel Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1148">
   <si>
     <t>No.</t>
   </si>
@@ -4061,6 +4061,54 @@
   </si>
   <si>
     <t>and check whether that string column hashmap already contains. If it does, we increment a count variable by value of that string key and return count</t>
+  </si>
+  <si>
+    <t>Asteriod Collision</t>
+  </si>
+  <si>
+    <t>1. Array element(asteroids) sign denotes it direction of flow.</t>
+  </si>
+  <si>
+    <t>2. Elements(asteroids) flowing in same directions never meet, but flowing in different directions always meet</t>
+  </si>
+  <si>
+    <t>3. Smaller asteroids gets destroyed in collision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sure, let's break it down in a simple way: Imagine you have a line of asteroids, and each asteroid is either moving to the left or to the </t>
+  </si>
+  <si>
+    <t>right. They all move at the same speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, there's a rule: if two asteroids collide, the smaller one disappears. If they are the same size, both disappear. Asteroids moving in the same </t>
+  </si>
+  <si>
+    <t>direction will never collide.</t>
+  </si>
+  <si>
+    <t>Algorithm: So, here's how the algorithm works:</t>
+  </si>
+  <si>
+    <t>1.We go through each asteroid in the line. 2. If an asteroid is moving to the right, we just keep it in the line(add to the stack).</t>
+  </si>
+  <si>
+    <t>3.If an asteroid is moving to the left, we check if it collides with any previous right-moving asteroid in the line.</t>
+  </si>
+  <si>
+    <t>4. If it does collide, we follow the rules: the bigger one survives, or if they are the same size, both disappear.</t>
+  </si>
+  <si>
+    <t>5. We repeat this process for all asteroids. In the end, whatever is left in the line is the result after all the collisions.</t>
+  </si>
+  <si>
+    <t>Removing starts from a String</t>
+  </si>
+  <si>
+    <t>Create a stack, we iterate over the input string, if we encounter a * in a string, we pop from stack else we add that character to stack.</t>
+  </si>
+  <si>
+    <t>We use a stringbuilder to store the content of the stack until it it not empty. After that we return reverse of stringbuilder with tostring.</t>
   </si>
 </sst>
 </file>
@@ -8852,7 +8900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E47" workbookViewId="0">
+    <sheetView topLeftCell="E29" workbookViewId="0">
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
@@ -9657,7 +9705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -10375,7 +10423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
@@ -11534,7 +11582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H247" sqref="H247"/>
     </sheetView>
   </sheetViews>
@@ -13298,17 +13346,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="43.44140625" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="109.77734375" customWidth="1"/>
+    <col min="8" max="8" width="117.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13469,6 +13517,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16">
+        <v>5</v>
+      </c>
       <c r="B16" t="s">
         <v>159</v>
       </c>
@@ -13491,24 +13542,151 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="1:8">
       <c r="H17" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="1:8">
       <c r="H18" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="1:8">
       <c r="H19" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="1:8">
       <c r="H20" t="s">
         <v>1010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="H23" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="H24" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="H25" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="H26" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="H28" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="H30" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="H33" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="H34" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="H37" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="H38" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="H39" t="s">
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
